--- a/Codigo/Bases/datos_administrativos/Indicadores_de_Género/VIOLENCIA/Hechos Delictivos/Muertes violentas por sexo, según causa de muerte 2018 y 2022.xlsx
+++ b/Codigo/Bases/datos_administrativos/Indicadores_de_Género/VIOLENCIA/Hechos Delictivos/Muertes violentas por sexo, según causa de muerte 2018 y 2022.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ineedso\Desktop\DESA 2023\SOLICITUDES DE INFORMACION 2023\Solicitud de Genero\VIOLENCIA\Hechos Delictivos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pgalvez\OneDrive - ine.gob.gt\Documentos\GitHub\CompendioGenero2023\Codigo\Bases\datos_administrativos\Indicadores_de_Género\VIOLENCIA\Hechos Delictivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11A0D8A-B07E-4435-B495-F2C9E127D2CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A217CAD-BB33-44A9-BF89-E5ED6D5BF600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="834" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Índice" sheetId="37" r:id="rId1"/>
     <sheet name="5.13_2018" sheetId="48" r:id="rId2"/>
-    <sheet name="5.13_2022" sheetId="51" r:id="rId3"/>
+    <sheet name="2018" sheetId="52" r:id="rId3"/>
+    <sheet name="5.13_2022" sheetId="51" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="38">
   <si>
     <t>Ignorado</t>
   </si>
@@ -146,6 +147,9 @@
   </si>
   <si>
     <t>Servicios médico de necropsias por sexo, según principales causas de muerte, año 2018</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -635,7 +639,7 @@
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal 2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
@@ -903,7 +907,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1225,11 +1229,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:T10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="3" max="3" width="88.42578125" customWidth="1"/>
@@ -1320,10 +1324,10 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" style="14" customWidth="1"/>
     <col min="2" max="2" width="24.7109375" style="14" customWidth="1"/>
@@ -2547,6 +2551,718 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20092157-B9C5-4550-9D90-2D23C52F88D1}">
+  <dimension ref="A1:M17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2">
+        <v>112</v>
+      </c>
+      <c r="C2">
+        <v>97</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2">
+        <v>61</v>
+      </c>
+      <c r="I2">
+        <v>23</v>
+      </c>
+      <c r="J2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <v>40</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>28</v>
+      </c>
+      <c r="F3">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3">
+        <v>437</v>
+      </c>
+      <c r="I3">
+        <v>65</v>
+      </c>
+      <c r="J3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>137</v>
+      </c>
+      <c r="C4">
+        <v>27</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>53</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4">
+        <v>622</v>
+      </c>
+      <c r="I4">
+        <v>78</v>
+      </c>
+      <c r="J4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>5</v>
+      </c>
+      <c r="M4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>123</v>
+      </c>
+      <c r="C5">
+        <v>22</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>50</v>
+      </c>
+      <c r="F5">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5">
+        <v>531</v>
+      </c>
+      <c r="I5">
+        <v>46</v>
+      </c>
+      <c r="J5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>96</v>
+      </c>
+      <c r="C6">
+        <v>27</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>42</v>
+      </c>
+      <c r="F6">
+        <v>8</v>
+      </c>
+      <c r="G6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6">
+        <v>374</v>
+      </c>
+      <c r="I6">
+        <v>51</v>
+      </c>
+      <c r="J6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>95</v>
+      </c>
+      <c r="C7">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>27</v>
+      </c>
+      <c r="F7">
+        <v>8</v>
+      </c>
+      <c r="G7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7">
+        <v>353</v>
+      </c>
+      <c r="I7">
+        <v>48</v>
+      </c>
+      <c r="J7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>82</v>
+      </c>
+      <c r="C8">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>36</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8">
+        <v>230</v>
+      </c>
+      <c r="I8">
+        <v>30</v>
+      </c>
+      <c r="J8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>61</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>22</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9">
+        <v>146</v>
+      </c>
+      <c r="I9">
+        <v>28</v>
+      </c>
+      <c r="J9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>58</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>16</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10">
+        <v>108</v>
+      </c>
+      <c r="I10">
+        <v>22</v>
+      </c>
+      <c r="J10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>46</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>11</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11">
+        <v>74</v>
+      </c>
+      <c r="I11">
+        <v>15</v>
+      </c>
+      <c r="J11" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>46</v>
+      </c>
+      <c r="C12">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12">
+        <v>38</v>
+      </c>
+      <c r="I12">
+        <v>9</v>
+      </c>
+      <c r="J12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>21</v>
+      </c>
+      <c r="C13">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>11</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13">
+        <v>21</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>15</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>9</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14">
+        <v>22</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15">
+        <v>6</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15" t="s">
+        <v>37</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>37</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>22</v>
+      </c>
+      <c r="C17">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>8</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17">
+        <v>40</v>
+      </c>
+      <c r="I17">
+        <v>5</v>
+      </c>
+      <c r="J17" t="s">
+        <v>37</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:V28"/>
   <sheetViews>
@@ -2555,7 +3271,7 @@
       <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" style="14" customWidth="1"/>
     <col min="2" max="2" width="24.7109375" style="14" customWidth="1"/>
